--- a/src/assets/samplesheet.xlsx
+++ b/src/assets/samplesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\allData\Running Project\Atpl-education\atpl-admin-panal\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EA289-D79D-49AD-944C-9C546DB69625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2868FB0F-077E-4CA4-8818-7F666E4D1495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>question</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>option_C</t>
+  </si>
+  <si>
+    <t>is_image</t>
   </si>
 </sst>
 </file>
@@ -324,18 +327,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -365,6 +369,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
